--- a/WiAuswertung.xlsx
+++ b/WiAuswertung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekte\Pythonscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67B99F61-CD46-4F20-94CB-6972E8D6385D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F8DCAC-A53F-4B25-9E9A-E939C2D92C41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{35AC4296-2AB4-4A5E-8FA3-40FC2CF0DBC9}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{35AC4296-2AB4-4A5E-8FA3-40FC2CF0DBC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
   <si>
     <t>Station</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>Besser als das Gütemass</t>
+  </si>
+  <si>
+    <t>Model3</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10955ADF-49CD-42C6-BC44-D19D76C4E8BB}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +631,7 @@
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,14 +644,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,22 +668,29 @@
         <v>11.05</v>
       </c>
       <c r="E2">
+        <v>8.59</v>
+      </c>
+      <c r="F2">
         <f>IF(B2 &gt; C2,1, 0 )</f>
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>IF(B2 &gt; D2,1, 0 )</f>
         <v>1</v>
       </c>
       <c r="H2">
+        <f>IF(B2 &gt; E2,1, 0 )</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
         <f>COUNTIF(B1:B64,"nan")</f>
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,15 +704,22 @@
         <v>13.23</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E64" si="0">IF(B3 &gt; C3,1, 0 )</f>
-        <v>1</v>
+        <v>9.89</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F64" si="1">IF(B3 &gt; D3,1, 0 )</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F3:F64" si="0">IF(B3 &gt; C3,1, 0 )</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G64" si="1">IF(B3 &gt; D3,1, 0 )</f>
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H64" si="2">IF(B3 &gt; E3,1, 0 )</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,19 +732,26 @@
       <c r="D4" t="s">
         <v>67</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>67</v>
       </c>
       <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -738,18 +765,25 @@
         <v>16.78</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20.53</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -762,16 +796,23 @@
       <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>67</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -785,15 +826,22 @@
         <v>17.14</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9.68</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -807,15 +855,22 @@
         <v>21.51</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -828,16 +883,23 @@
       <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>67</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -851,15 +913,22 @@
         <v>6.5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.36</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -873,15 +942,22 @@
         <v>21.78</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18.12</v>
       </c>
       <c r="F11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -895,15 +971,22 @@
         <v>71.09</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78.260000000000005</v>
       </c>
       <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -916,16 +999,23 @@
       <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>67</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -939,15 +1029,22 @@
         <v>115.9</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.51</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -961,15 +1058,22 @@
         <v>63.2</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53.95</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -983,15 +1087,22 @@
         <v>13.67</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9.92</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1005,15 +1116,22 @@
         <v>28.44</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.68</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1027,15 +1145,22 @@
         <v>25.56</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20.34</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1049,15 +1174,22 @@
         <v>25.67</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.56</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1071,15 +1203,22 @@
         <v>11.77</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1092,16 +1231,23 @@
       <c r="D21" t="s">
         <v>67</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>67</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1115,15 +1261,22 @@
         <v>34.61</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1136,16 +1289,23 @@
       <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>67</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1159,15 +1319,22 @@
         <v>22.38</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29.31</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1181,15 +1348,22 @@
         <v>46.31</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>39.01</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1203,15 +1377,22 @@
         <v>30.81</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29.64</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1224,16 +1405,23 @@
       <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E27" t="s">
+        <v>67</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1247,15 +1435,22 @@
         <v>32.85</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11.26</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1269,15 +1464,22 @@
         <v>33.979999999999997</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26.64</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1291,15 +1493,22 @@
         <v>33.79</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.09</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -1313,15 +1522,22 @@
         <v>17.18</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7.57</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -1335,15 +1551,22 @@
         <v>61.37</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>38.04</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
@@ -1357,15 +1580,22 @@
         <v>6.16</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.58</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1379,15 +1609,22 @@
         <v>26.66</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21.33</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1401,15 +1638,22 @@
         <v>34.85</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>23.99</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
@@ -1422,16 +1666,23 @@
       <c r="D36" t="s">
         <v>67</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E36" t="s">
+        <v>67</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
@@ -1445,15 +1696,22 @@
         <v>22.74</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>40</v>
       </c>
@@ -1467,15 +1725,22 @@
         <v>18.22</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22.54</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1489,15 +1754,22 @@
         <v>12.25</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11.66</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
@@ -1511,15 +1783,22 @@
         <v>25</v>
       </c>
       <c r="E40">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26.06</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
@@ -1532,16 +1811,23 @@
       <c r="D41" t="s">
         <v>67</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E41" t="s">
+        <v>67</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -1555,15 +1841,22 @@
         <v>19.03</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17.54</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>45</v>
       </c>
@@ -1576,16 +1869,23 @@
       <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E43" t="s">
+        <v>67</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>46</v>
       </c>
@@ -1599,15 +1899,22 @@
         <v>12.5</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14.56</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -1621,15 +1928,22 @@
         <v>28.77</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>48</v>
       </c>
@@ -1643,15 +1957,22 @@
         <v>23.97</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.44</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -1665,15 +1986,22 @@
         <v>58.87</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>32.96</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -1687,15 +2015,22 @@
         <v>33.97</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20.92</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -1709,15 +2044,22 @@
         <v>13.18</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.48</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -1731,15 +2073,22 @@
         <v>24.65</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21.72</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -1753,15 +2102,22 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.27</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -1775,15 +2131,22 @@
         <v>8.6199999999999992</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.85</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -1797,15 +2160,22 @@
         <v>28.65</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -1819,15 +2189,22 @@
         <v>40.36</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34.79</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -1841,15 +2218,22 @@
         <v>48.42</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20.65</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -1863,15 +2247,22 @@
         <v>43.53</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.31</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -1885,15 +2276,22 @@
         <v>16.59</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9.9600000000000009</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -1907,15 +2305,22 @@
         <v>15.55</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9.89</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -1929,15 +2334,22 @@
         <v>11.92</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.44</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -1951,15 +2363,22 @@
         <v>15.79</v>
       </c>
       <c r="E60">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18.18</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -1973,15 +2392,22 @@
         <v>6.65</v>
       </c>
       <c r="E61">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6.37</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -1995,15 +2421,22 @@
         <v>22.53</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -2017,15 +2450,22 @@
         <v>230.49</v>
       </c>
       <c r="E63">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>60.47</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -2039,25 +2479,36 @@
         <v>49.54</v>
       </c>
       <c r="E64">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12.35</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="2">
-        <f>COUNTIF(E2:E64,1)/H5</f>
+      <c r="F65" s="2">
+        <f>COUNTIF(F2:F64,1)/I5</f>
         <v>0.71698113207547165</v>
       </c>
-      <c r="F65" s="2">
-        <f>COUNTIF(F2:F64,1)/H5</f>
+      <c r="G65" s="2">
+        <f>COUNTIF(G2:G64,1)/I5</f>
         <v>0.79245283018867929</v>
+      </c>
+      <c r="H65" s="2">
+        <f>COUNTIF(H2:H64,1)/I5</f>
+        <v>0.98113207547169812</v>
       </c>
     </row>
   </sheetData>
